--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud Storages\Nextcloud\Paul\HTL 4 AHIT\ITPP\GitHub\ITPP-Project-4-AHIT\Dokumente\Timelines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansti/Documents/Projekte/ITPP-Project-4-AHIT/Dokumente/Timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="17895" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16180"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -59,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +118,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -120,7 +126,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -133,29 +139,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,209 +480,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>42990</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E2:F2"/>
@@ -688,16 +690,28 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud Storages\Nextcloud\Paul\HTL 4 AHIT\ITPP\GitHub\ITPP-Project-4-AHIT\Dokumente\Timelines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cloud Storages\Nextcloud\HTL 4 AHIT\ITPP\GitHub\ITPP-Project-4-AHIT\Dokumente\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="17895" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="17898" windowHeight="7968"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>Arnstorfer Dominik</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Technologierecherche</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Erstellung Pflichtenheft</t>
   </si>
 </sst>
 </file>
@@ -135,10 +141,8 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -150,7 +154,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -470,12 +476,12 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -487,191 +493,220 @@
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
         <v>42990</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>42997</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E2:F2"/>
@@ -688,16 +723,26 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="17898" windowHeight="7968"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="17898" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>Arnstorfer Dominik</t>
   </si>
@@ -60,13 +60,55 @@
   </si>
   <si>
     <t>Erstellung Pflichtenheft</t>
+  </si>
+  <si>
+    <t>fehlend</t>
+  </si>
+  <si>
+    <t>Anpassung Projektplanung</t>
+  </si>
+  <si>
+    <t>Risiko &amp; Chancenanalyse</t>
+  </si>
+  <si>
+    <t>PdSP</t>
+  </si>
+  <si>
+    <t>OdSP</t>
+  </si>
+  <si>
+    <t>Besprechung</t>
+  </si>
+  <si>
+    <t>Dokumentenanpassung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,22 +181,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,241 +515,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="10.9453125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>42990</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>42997</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="6">
+        <v>43004</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E2:F2"/>
@@ -723,26 +812,22 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="17898" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="17898" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>Arnstorfer Dominik</t>
   </si>
@@ -35,18 +35,6 @@
     <t>Hackl Bernhard</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>Ideenfindung</t>
   </si>
   <si>
@@ -81,13 +69,43 @@
   </si>
   <si>
     <t>Dokumentenanpassung</t>
+  </si>
+  <si>
+    <t>Merge-Probleme</t>
+  </si>
+  <si>
+    <t>Usecase-Beschreibung</t>
+  </si>
+  <si>
+    <t>Überarbeitung Usecase Diagram</t>
+  </si>
+  <si>
+    <t>Projekstrukturplan</t>
+  </si>
+  <si>
+    <t>Projektplanung</t>
+  </si>
+  <si>
+    <t>Bild für R&amp;C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einteilung </t>
+  </si>
+  <si>
+    <t>Dokumentenüberarbeitung</t>
+  </si>
+  <si>
+    <t>Git-Anpassung, Recherche</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +123,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,33 +201,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -516,15 +550,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="10.9453125" style="1"/>
+    <col min="1" max="5" width="10.9453125" style="1"/>
+    <col min="6" max="6" width="15.26171875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.9453125" style="1"/>
+    <col min="8" max="8" width="15.15625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.9453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -545,74 +583,78 @@
       <c r="A2" s="6">
         <v>42990</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="10">
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="10">
+        <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="10">
+        <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="10">
+        <f>SUM(B2:B5)</f>
+        <v>4</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -621,183 +663,336 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6">
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6">
         <v>42997</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+      <c r="B8" s="10">
+        <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
+      <c r="B10" s="10">
+        <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="10">
+        <f>SUM(B8:B11)</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6">
+        <v>43004</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6">
-        <v>43004</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1" t="s">
-        <v>6</v>
+      <c r="B15" s="10">
+        <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="10">
+        <f>SUM(B14:B17)</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="6">
+        <v>43011</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="10">
+        <f>SUM(B20:B24)</f>
+        <v>4</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
+  <mergeCells count="66">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E3:F3"/>
@@ -806,28 +1001,28 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="17898" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="17898" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>Arnstorfer Dominik</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>Git-Anpassung, Recherche</t>
+  </si>
+  <si>
+    <t>Arbeitspaketbeschreibung</t>
+  </si>
+  <si>
+    <t>Aps definieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aps definieren </t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
   </si>
 </sst>
 </file>
@@ -223,6 +235,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -232,7 +245,6 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -550,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -583,380 +595,613 @@
       <c r="A2" s="6">
         <v>42990</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <f>SUM(B2:B5)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>42997</v>
       </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <f>SUM(B8:B11)</f>
         <v>4</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
         <v>43004</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <f>SUM(B14:B17)</f>
         <v>4</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6">
         <v>43011</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>0.5</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>1.5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>0.5</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>0.5</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <f>SUM(B20:B24)</f>
         <v>4</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6">
+        <v>43018</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="7">
+        <f>SUM(B27:B30)</f>
+        <v>4</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="102">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
@@ -973,56 +1218,6 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="17898" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="17898" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
   <si>
     <t>Arnstorfer Dominik</t>
   </si>
@@ -108,6 +108,51 @@
   </si>
   <si>
     <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>API Design</t>
+  </si>
+  <si>
+    <t>Websitefunktionalität planen</t>
+  </si>
+  <si>
+    <t>Neue Technologie erlernen</t>
+  </si>
+  <si>
+    <t>Datenbankdesgin und Recherche</t>
+  </si>
+  <si>
+    <t>Websitekomponenten Desgin</t>
+  </si>
+  <si>
+    <t>Verschlüsselungsmethodik planen</t>
+  </si>
+  <si>
+    <t>Website Design</t>
+  </si>
+  <si>
+    <t>Websitekomponenten Design</t>
+  </si>
+  <si>
+    <t>D01 Erstellen</t>
+  </si>
+  <si>
+    <t>Kino</t>
+  </si>
+  <si>
+    <t>Testumgebungsnetzwerk einrichten</t>
+  </si>
+  <si>
+    <t>Testumgebungsserver einrichten</t>
+  </si>
+  <si>
+    <t>Browserspezifischeunterschiede herausarbeiten</t>
+  </si>
+  <si>
+    <t>Planung der benötigten Funktionen</t>
+  </si>
+  <si>
+    <t>Überarbeitung Verschlüsselungsmethodik</t>
   </si>
 </sst>
 </file>
@@ -219,9 +264,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,15 +290,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,630 +613,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:H38"/>
+    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="10.9453125" style="1"/>
-    <col min="6" max="6" width="15.26171875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.9453125" style="1"/>
+    <col min="4" max="4" width="19.47265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.9453125" style="1"/>
+    <col min="6" max="6" width="19.20703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.9453125" style="1"/>
-    <col min="8" max="8" width="15.15625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.20703125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.9453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>42990</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <f>SUM(B2:B5)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="7"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <v>42997</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <f>SUM(B8:B11)</f>
         <v>4</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>43004</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <f>SUM(B14:B17)</f>
         <v>4</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6">
+      <c r="A20" s="2">
         <v>43011</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="3">
         <v>0.5</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="7">
+      <c r="B21" s="3">
         <v>1.5</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="7">
+      <c r="B22" s="3">
         <v>0.5</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <v>0.5</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="7">
+      <c r="B25" s="3">
         <f>SUM(B20:B24)</f>
         <v>4</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="6">
+      <c r="A27" s="2">
         <v>43018</v>
       </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="7">
+      <c r="B31" s="3">
         <f>SUM(B27:B30)</f>
         <v>4</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <f>A27+7</f>
+        <v>43025</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="B37" s="3">
+        <f>SUM(B33:B36)</f>
+        <v>4</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="A39" s="2">
+        <f>A33+7</f>
+        <v>43032</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="3">
+        <f>SUM(B39:B42)</f>
+        <v>4</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
+        <f>A39+7</f>
+        <v>43039</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="3">
+        <f>SUM(B45:B48)</f>
+        <v>4</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2">
+        <f>A45+7</f>
+        <v>43046</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="3">
+        <f>SUM(B51:B54)</f>
+        <v>4</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2">
+        <f>A51+7</f>
+        <v>43053</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="3">
+        <f>SUM(B57:B60)</f>
+        <v>4</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2">
+        <f>A57+7</f>
+        <v>43060</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="3">
+        <f>SUM(B63:B66)</f>
+        <v>4</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
+  <mergeCells count="177">
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C9:D9"/>
@@ -1205,19 +1730,80 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cloud Storages\Nextcloud\HTL 4 AHIT\ITPP\GitHub\ITPP-Project-4-AHIT\Dokumente\Timeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansti/Documents/ITPP-Project-4-AHIT/Dokumente/Timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="17898" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
   <si>
     <t>Arnstorfer Dominik</t>
   </si>
@@ -153,16 +159,34 @@
   </si>
   <si>
     <t>Überarbeitung Verschlüsselungsmethodik</t>
+  </si>
+  <si>
+    <t>Orderstruktur festlegen</t>
+  </si>
+  <si>
+    <t>Angular JS Recherche</t>
+  </si>
+  <si>
+    <t>Bootstrap Recherche</t>
+  </si>
+  <si>
+    <t>Dependencies herunterladen</t>
+  </si>
+  <si>
+    <t>Includes erstellen</t>
+  </si>
+  <si>
+    <t>Login / Register Erstellung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +236,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -242,7 +282,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -250,7 +290,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -258,13 +298,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -272,10 +316,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,21 +337,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
+    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Dezimal" xfId="3" builtinId="3"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Komma" xfId="3" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,122 +657,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85:D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.9453125" style="1"/>
-    <col min="4" max="4" width="19.47265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.9453125" style="1"/>
-    <col min="6" max="6" width="19.20703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.9453125" style="1"/>
-    <col min="8" max="8" width="29.20703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.9453125" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="19.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="29.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42990</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <f>SUM(B2:B5)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -736,90 +781,90 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42997</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <f>SUM(B8:B11)</f>
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -828,90 +873,90 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43004</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <f>SUM(B14:B17)</f>
         <v>4</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -920,199 +965,199 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43011</v>
       </c>
       <c r="B20" s="3">
         <v>0.5</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>1.5</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>0.5</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>0.5</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <f>SUM(B20:B24)</f>
         <v>4</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43018</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <f>SUM(B27:B30)</f>
         <v>4</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f>A27+7</f>
         <v>43025</v>
@@ -1120,92 +1165,92 @@
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <f>SUM(B33:B36)</f>
         <v>4</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f>A33+7</f>
         <v>43032</v>
@@ -1213,83 +1258,83 @@
       <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="12" t="s">
+      <c r="F39" s="7"/>
+      <c r="G39" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="12" t="s">
+      <c r="F40" s="7"/>
+      <c r="G40" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="12" t="s">
+      <c r="F41" s="7"/>
+      <c r="G41" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="12" t="s">
+      <c r="F42" s="7"/>
+      <c r="G42" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <f>SUM(B39:B42)</f>
         <v>4</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <f>A39+7</f>
         <v>43039</v>
@@ -1297,83 +1342,83 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="5"/>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <v>1</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
         <f>SUM(B45:B48)</f>
         <v>4</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f>A45+7</f>
         <v>43046</v>
@@ -1381,83 +1426,83 @@
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D51" s="5"/>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="12" t="s">
+      <c r="F51" s="7"/>
+      <c r="G51" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
         <v>1</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="12" t="s">
+      <c r="F52" s="7"/>
+      <c r="G52" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
         <v>1</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
         <v>1</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="12" t="s">
+      <c r="F54" s="6"/>
+      <c r="G54" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
         <f>SUM(B51:B54)</f>
         <v>4</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <f>A51+7</f>
         <v>43053</v>
@@ -1465,83 +1510,83 @@
       <c r="B57" s="3">
         <v>1</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="5"/>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
         <v>1</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>39</v>
+      <c r="C59" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F59" s="5"/>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
         <v>1</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>39</v>
+      <c r="C60" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D60" s="5"/>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
         <f>SUM(B57:B60)</f>
         <v>4</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <f>A57+7</f>
         <v>43060</v>
@@ -1549,168 +1594,312 @@
       <c r="B63" s="3">
         <v>1</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D63" s="5"/>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="12" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
         <v>1</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="12" t="s">
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5" t="s">
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="3">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="F66" s="6"/>
+      <c r="G66" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="3">
         <f>SUM(B63:B66)</f>
         <v>4</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <f>A63+7</f>
+        <v>43067</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="3">
+        <f>SUM(B69:B72)</f>
+        <v>4</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <f>A69+7</f>
+        <v>43074</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="3">
+        <f>SUM(B75:B78)</f>
+        <v>4</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <f>A75+7</f>
+        <v>43081</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="3">
+        <f>SUM(B81:B84)</f>
+        <v>4</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
+  <mergeCells count="192">
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C9:D9"/>
@@ -1735,75 +1924,90 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansti/Documents/ITPP-Project-4-AHIT/Dokumente/Timeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hackl\Documents\GitHub\ITPP-Project-4-AHIT\Dokumente\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="1038" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
   <si>
     <t>Arnstorfer Dominik</t>
   </si>
@@ -177,14 +177,29 @@
   </si>
   <si>
     <t>Login / Register Erstellung</t>
+  </si>
+  <si>
+    <t>Ordnerstruktur festlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation erstellen </t>
+  </si>
+  <si>
+    <t>Icons suchen, Fontawsome hinzufügen</t>
+  </si>
+  <si>
+    <t>Navigation erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neue Icons suchen </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -302,13 +317,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -316,16 +331,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -337,16 +352,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Dezimal" xfId="3" builtinId="3"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3"/>
+    <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,25 +673,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85:D85"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="19.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="29.1640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.83984375" style="1"/>
+    <col min="4" max="4" width="19.47265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83984375" style="1"/>
+    <col min="6" max="6" width="19.15625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83984375" style="1"/>
+    <col min="8" max="8" width="29.15625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -689,90 +705,90 @@
       </c>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>42990</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3">
         <f>SUM(B2:B5)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -781,90 +797,90 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>42997</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3">
         <f>SUM(B8:B11)</f>
         <v>4</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -873,90 +889,90 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>43004</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3">
         <f>SUM(B14:B17)</f>
         <v>4</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -965,199 +981,199 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>43011</v>
       </c>
       <c r="B20" s="3">
         <v>0.5</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="3">
         <v>1.5</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3">
         <v>0.5</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="3">
         <v>0.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="3">
         <f>SUM(B20:B24)</f>
         <v>4</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>43018</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="3">
         <f>SUM(B27:B30)</f>
         <v>4</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="3"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <f>A27+7</f>
         <v>43025</v>
@@ -1165,92 +1181,92 @@
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="3">
         <f>SUM(B33:B36)</f>
         <v>4</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <f>A33+7</f>
         <v>43032</v>
@@ -1258,83 +1274,83 @@
       <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="3">
         <f>SUM(B39:B42)</f>
         <v>4</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <f>A39+7</f>
         <v>43039</v>
@@ -1342,83 +1358,83 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="3">
         <v>1</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="3">
         <f>SUM(B45:B48)</f>
         <v>4</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
         <f>A45+7</f>
         <v>43046</v>
@@ -1426,83 +1442,83 @@
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="3">
         <v>1</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="3">
         <v>1</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="3">
         <v>1</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="6"/>
+      <c r="E54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="5" t="s">
+      <c r="F54" s="5"/>
+      <c r="G54" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="3">
         <f>SUM(B51:B54)</f>
         <v>4</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
         <f>A51+7</f>
         <v>43053</v>
@@ -1510,83 +1526,83 @@
       <c r="B57" s="3">
         <v>1</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5" t="s">
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="3">
         <v>1</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5" t="s">
+      <c r="F59" s="6"/>
+      <c r="G59" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="3">
         <v>1</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5" t="s">
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="3">
         <f>SUM(B57:B60)</f>
         <v>4</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
         <f>A57+7</f>
         <v>43060</v>
@@ -1594,83 +1610,83 @@
       <c r="B63" s="3">
         <v>1</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="3">
         <v>1</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5" t="s">
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="3">
         <v>1</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6" t="s">
+      <c r="D65" s="6"/>
+      <c r="E65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="5" t="s">
+      <c r="F65" s="5"/>
+      <c r="G65" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="3">
         <v>1</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6" t="s">
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6" t="s">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="3">
         <f>SUM(B63:B66)</f>
         <v>4</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2">
         <f>A63+7</f>
         <v>43067</v>
@@ -1678,47 +1694,59 @@
       <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D69" s="6"/>
+      <c r="H69" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="3">
         <v>1</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D70" s="6"/>
+      <c r="H70" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="3">
         <v>1</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D71" s="6"/>
+      <c r="H71" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="3">
         <v>1</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D72" s="5"/>
+      <c r="H72" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="3">
         <f>SUM(B69:B72)</f>
         <v>4</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2">
         <f>A69+7</f>
         <v>43074</v>
@@ -1726,47 +1754,64 @@
       <c r="B75" s="3">
         <v>1</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D75" s="6"/>
+      <c r="H75" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="3">
         <v>1</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D76" s="6"/>
+      <c r="H76" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="3">
         <v>1</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D77" s="6"/>
+      <c r="H77" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="3">
         <v>1</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D78" s="6"/>
+      <c r="H78" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="3">
         <f>SUM(B75:B78)</f>
         <v>4</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H80" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2">
         <f>A75+7</f>
         <v>43081</v>
@@ -1774,132 +1819,141 @@
       <c r="B81" s="3">
         <v>1</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="6"/>
+      <c r="H81" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="3">
         <v>1</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="6"/>
+      <c r="H82" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="3">
         <v>1</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="6"/>
+      <c r="H83" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="3">
         <v>1</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="3">
         <f>SUM(B81:B84)</f>
         <v>4</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C9:D9"/>
@@ -1924,90 +1978,90 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1038" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1638" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
   <si>
     <t>Arnstorfer Dominik</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t xml:space="preserve">Neue Icons suchen </t>
+  </si>
+  <si>
+    <t>General Settings erstellen</t>
+  </si>
+  <si>
+    <t>Ordnerstruktur geupdated</t>
+  </si>
+  <si>
+    <t>Import / Export erstellen</t>
   </si>
 </sst>
 </file>
@@ -323,7 +332,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -331,16 +340,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -352,7 +359,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -674,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -712,81 +722,81 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3">
         <f>SUM(B2:B5)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3"/>
@@ -804,81 +814,81 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3">
         <f>SUM(B8:B11)</f>
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3"/>
@@ -896,81 +906,81 @@
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3">
         <f>SUM(B14:B17)</f>
         <v>4</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3"/>
@@ -988,98 +998,98 @@
       <c r="B20" s="3">
         <v>0.5</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="3">
         <v>1.5</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3">
         <v>0.5</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="3">
         <v>0.5</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="3">
         <f>SUM(B20:B24)</f>
         <v>4</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
@@ -1088,90 +1098,90 @@
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="3">
         <f>SUM(B27:B30)</f>
         <v>4</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
@@ -1181,90 +1191,90 @@
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="3">
         <f>SUM(B33:B36)</f>
         <v>4</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="3"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
@@ -1278,10 +1288,10 @@
         <v>29</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="6" t="s">
         <v>29</v>
       </c>
@@ -1295,10 +1305,10 @@
         <v>29</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="6" t="s">
         <v>29</v>
       </c>
@@ -1312,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="6" t="s">
         <v>31</v>
       </c>
@@ -1329,10 +1339,10 @@
         <v>30</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="6" t="s">
         <v>31</v>
       </c>
@@ -1343,12 +1353,12 @@
         <f>SUM(B39:B42)</f>
         <v>4</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
@@ -1427,12 +1437,12 @@
         <f>SUM(B45:B48)</f>
         <v>4</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
@@ -1446,10 +1456,10 @@
         <v>34</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="6" t="s">
         <v>35</v>
       </c>
@@ -1463,10 +1473,10 @@
         <v>34</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="6" t="s">
         <v>35</v>
       </c>
@@ -1497,10 +1507,10 @@
         <v>34</v>
       </c>
       <c r="D54" s="6"/>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="5"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="6" t="s">
         <v>35</v>
       </c>
@@ -1511,12 +1521,12 @@
         <f>SUM(B51:B54)</f>
         <v>4</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
@@ -1595,12 +1605,12 @@
         <f>SUM(B57:B60)</f>
         <v>4</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
@@ -1614,10 +1624,10 @@
         <v>41</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="7"/>
+      <c r="F63" s="8"/>
       <c r="G63" s="6" t="s">
         <v>41</v>
       </c>
@@ -1648,10 +1658,10 @@
         <v>39</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="5"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="6" t="s">
         <v>41</v>
       </c>
@@ -1661,30 +1671,30 @@
       <c r="B66" s="3">
         <v>1</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5" t="s">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5" t="s">
+      <c r="F66" s="7"/>
+      <c r="G66" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="5"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="3">
         <f>SUM(B63:B66)</f>
         <v>4</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2">
@@ -1698,7 +1708,7 @@
         <v>43</v>
       </c>
       <c r="D69" s="6"/>
-      <c r="H69" s="12" t="s">
+      <c r="H69" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1710,7 +1720,7 @@
         <v>43</v>
       </c>
       <c r="D70" s="6"/>
-      <c r="H70" s="12" t="s">
+      <c r="H70" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1722,7 +1732,7 @@
         <v>44</v>
       </c>
       <c r="D71" s="6"/>
-      <c r="H71" s="12" t="s">
+      <c r="H71" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1733,8 +1743,8 @@
       <c r="C72" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="H72" s="12" t="s">
+      <c r="D72" s="7"/>
+      <c r="H72" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1743,8 +1753,8 @@
         <f>SUM(B69:B72)</f>
         <v>4</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2">
@@ -1758,7 +1768,7 @@
         <v>46</v>
       </c>
       <c r="D75" s="6"/>
-      <c r="H75" s="12" t="s">
+      <c r="H75" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1770,7 +1780,7 @@
         <v>47</v>
       </c>
       <c r="D76" s="6"/>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1782,7 +1792,7 @@
         <v>48</v>
       </c>
       <c r="D77" s="6"/>
-      <c r="H77" s="12" t="s">
+      <c r="H77" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1794,7 +1804,7 @@
         <v>48</v>
       </c>
       <c r="D78" s="6"/>
-      <c r="H78" s="12" t="s">
+      <c r="H78" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1803,13 +1813,11 @@
         <f>SUM(B75:B78)</f>
         <v>4</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H80" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="H80" s="5"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2">
@@ -1823,7 +1831,7 @@
         <v>48</v>
       </c>
       <c r="D81" s="6"/>
-      <c r="H81" s="12" t="s">
+      <c r="H81" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1835,7 +1843,7 @@
         <v>48</v>
       </c>
       <c r="D82" s="6"/>
-      <c r="H82" s="12" t="s">
+      <c r="H82" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1847,7 +1855,7 @@
         <v>48</v>
       </c>
       <c r="D83" s="6"/>
-      <c r="H83" s="12" t="s">
+      <c r="H83" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1859,101 +1867,227 @@
         <v>48</v>
       </c>
       <c r="D84" s="6"/>
+      <c r="H84" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="3">
         <f>SUM(B81:B84)</f>
         <v>4</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="2">
+        <f>A81+7</f>
+        <v>43088</v>
+      </c>
+      <c r="B87" s="13">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="13">
+        <v>1</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="13">
+        <v>1</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="13">
+        <v>1</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="2">
+        <f>A87+21</f>
+        <v>43109</v>
+      </c>
+      <c r="B93" s="13">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="13">
+        <v>1</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="13">
+        <v>1</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="13">
+        <v>1</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="2">
+        <f>A93+7</f>
+        <v>43116</v>
+      </c>
+      <c r="B99" s="13">
+        <v>1</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="13">
+        <v>1</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="13">
+        <v>1</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="13">
+        <v>1</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="13">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C9:D9"/>
@@ -1978,90 +2112,90 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hackl\Documents\GitHub\ITPP-Project-4-AHIT\Dokumente\Timeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansti/Documents/ITPP-Project-4-AHIT/Dokumente/Timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1638" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
   <si>
     <t>Arnstorfer Dominik</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Includes erstellen</t>
   </si>
   <si>
-    <t>Login / Register Erstellung</t>
-  </si>
-  <si>
     <t>Ordnerstruktur festlegen</t>
   </si>
   <si>
@@ -201,14 +198,29 @@
   </si>
   <si>
     <t>Import / Export erstellen</t>
+  </si>
+  <si>
+    <t>Ausfall: Musterung</t>
+  </si>
+  <si>
+    <t>Mobile Anpassung</t>
+  </si>
+  <si>
+    <t>Login / Register erstellen</t>
+  </si>
+  <si>
+    <t>Register erstellen</t>
+  </si>
+  <si>
+    <t>Settings erstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -326,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -341,13 +353,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -359,20 +375,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Dezimal" xfId="3" builtinId="3"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Komma" xfId="3" builtinId="3"/>
-    <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -683,39 +695,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90:D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83984375" style="1"/>
-    <col min="4" max="4" width="19.47265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83984375" style="1"/>
-    <col min="6" max="6" width="19.15625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83984375" style="1"/>
-    <col min="8" max="8" width="29.15625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83984375" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="19.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="29.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42990</v>
       </c>
@@ -735,7 +747,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -752,7 +764,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -769,7 +781,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -786,7 +798,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <f>SUM(B2:B5)</f>
         <v>4</v>
@@ -798,7 +810,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -807,7 +819,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42997</v>
       </c>
@@ -827,7 +839,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -844,7 +856,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -861,7 +873,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>1</v>
       </c>
@@ -878,7 +890,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <f>SUM(B8:B11)</f>
         <v>4</v>
@@ -890,7 +902,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -899,7 +911,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43004</v>
       </c>
@@ -919,7 +931,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>1</v>
       </c>
@@ -936,7 +948,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>1</v>
       </c>
@@ -953,7 +965,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>1</v>
       </c>
@@ -970,7 +982,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <f>SUM(B14:B17)</f>
         <v>4</v>
@@ -982,7 +994,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -991,7 +1003,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43011</v>
       </c>
@@ -1002,16 +1014,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>1.5</v>
       </c>
@@ -1028,7 +1040,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>0.5</v>
       </c>
@@ -1045,7 +1057,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>0.5</v>
       </c>
@@ -1062,7 +1074,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>1</v>
       </c>
@@ -1079,7 +1091,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <f>SUM(B20:B24)</f>
         <v>4</v>
@@ -1091,7 +1103,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43018</v>
       </c>
@@ -1102,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>1</v>
       </c>
@@ -1128,7 +1140,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>1</v>
       </c>
@@ -1145,7 +1157,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>1</v>
       </c>
@@ -1162,7 +1174,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <f>SUM(B27:B30)</f>
         <v>4</v>
@@ -1174,7 +1186,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1183,7 +1195,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f>A27+7</f>
         <v>43025</v>
@@ -1195,16 +1207,16 @@
         <v>18</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>1</v>
       </c>
@@ -1221,7 +1233,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>1</v>
       </c>
@@ -1238,7 +1250,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>1</v>
       </c>
@@ -1255,7 +1267,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <f>SUM(B33:B36)</f>
         <v>4</v>
@@ -1267,7 +1279,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1276,7 +1288,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f>A33+7</f>
         <v>43032</v>
@@ -1284,71 +1296,71 @@
       <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="8" t="s">
+      <c r="D39" s="8"/>
+      <c r="E39" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="6" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="6" t="s">
+      <c r="F41" s="9"/>
+      <c r="G41" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="8" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="6" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <f>SUM(B39:B42)</f>
         <v>4</v>
@@ -1360,7 +1372,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <f>A39+7</f>
         <v>43039</v>
@@ -1368,71 +1380,71 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <v>1</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6" t="s">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6" t="s">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
         <f>SUM(B45:B48)</f>
         <v>4</v>
@@ -1444,7 +1456,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f>A45+7</f>
         <v>43046</v>
@@ -1452,71 +1464,71 @@
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="8" t="s">
+      <c r="D51" s="8"/>
+      <c r="E51" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="6" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
         <v>1</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="8" t="s">
+      <c r="D52" s="8"/>
+      <c r="E52" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="6" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
         <v>1</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6" t="s">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
         <v>1</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
         <f>SUM(B51:B54)</f>
         <v>4</v>
@@ -1528,7 +1540,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <f>A51+7</f>
         <v>43053</v>
@@ -1536,71 +1548,71 @@
       <c r="B57" s="3">
         <v>1</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6" t="s">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
         <v>1</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6" t="s">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6" t="s">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
         <v>1</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="s">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6" t="s">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
         <f>SUM(B57:B60)</f>
         <v>4</v>
@@ -1612,7 +1624,7 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <f>A57+7</f>
         <v>43060</v>
@@ -1620,54 +1632,54 @@
       <c r="B63" s="3">
         <v>1</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="8" t="s">
+      <c r="D63" s="8"/>
+      <c r="E63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="6" t="s">
+      <c r="F63" s="9"/>
+      <c r="G63" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
         <v>1</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="s">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6" t="s">
+      <c r="F64" s="8"/>
+      <c r="G64" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
         <v>1</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="6"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
         <v>1</v>
       </c>
@@ -1684,7 +1696,7 @@
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="3">
         <f>SUM(B63:B66)</f>
         <v>4</v>
@@ -1696,7 +1708,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <f>A63+7</f>
         <v>43067</v>
@@ -1704,43 +1716,43 @@
       <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="8"/>
       <c r="H69" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="3">
         <v>1</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D70" s="8"/>
       <c r="H70" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B71" s="3">
         <v>1</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="8"/>
       <c r="H71" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B72" s="3">
         <v>1</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D72" s="7"/>
@@ -1748,7 +1760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="3">
         <f>SUM(B69:B72)</f>
         <v>4</v>
@@ -1756,7 +1768,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <f>A69+7</f>
         <v>43074</v>
@@ -1764,51 +1776,51 @@
       <c r="B75" s="3">
         <v>1</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="6"/>
+      <c r="D75" s="8"/>
       <c r="H75" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="H76" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="H77" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="H78" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="3">
-        <v>1</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="H76" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="H77" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="3">
-        <v>1</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="H78" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="3">
         <f>SUM(B75:B78)</f>
         <v>4</v>
@@ -1816,10 +1828,10 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <f>A75+7</f>
         <v>43081</v>
@@ -1827,51 +1839,51 @@
       <c r="B81" s="3">
         <v>1</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="6"/>
+      <c r="C81" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" s="8"/>
       <c r="H81" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="3">
         <v>1</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="6"/>
+      <c r="C82" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="8"/>
       <c r="H82" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="3">
         <v>1</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="6"/>
+      <c r="C83" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="8"/>
       <c r="H83" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="3">
         <v>1</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="6"/>
+      <c r="C84" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="8"/>
       <c r="H84" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="3">
         <f>SUM(B81:B84)</f>
         <v>4</v>
@@ -1879,215 +1891,275 @@
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <f>A81+7</f>
         <v>43088</v>
       </c>
-      <c r="B87" s="13">
-        <v>1</v>
-      </c>
+      <c r="B87" s="6">
+        <v>1</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="8"/>
       <c r="H87" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="13">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="6">
+        <v>1</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="8"/>
       <c r="H88" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="13">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="6">
+        <v>1</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="8"/>
       <c r="H89" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="13">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="6">
+        <v>1</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="8"/>
       <c r="H90" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <f>A87+21</f>
         <v>43109</v>
       </c>
-      <c r="B93" s="13">
-        <v>1</v>
-      </c>
+      <c r="B93" s="6">
+        <v>1</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="8"/>
       <c r="H93" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="13">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="6">
+        <v>1</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94" s="8"/>
       <c r="H94" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="13">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="6">
+        <v>1</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" s="8"/>
       <c r="H95" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="13">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="6">
+        <v>1</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="8"/>
       <c r="H96" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <f>A93+7</f>
         <v>43116</v>
       </c>
-      <c r="B99" s="13">
-        <v>1</v>
-      </c>
+      <c r="B99" s="6">
+        <v>1</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="8"/>
       <c r="H99" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="6">
+        <v>1</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="H100" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="H101" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="13">
-        <v>1</v>
-      </c>
-      <c r="H100" s="5" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="6">
+        <v>1</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="H102" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="13">
-        <v>1</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="13">
-        <v>1</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="13">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="6">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="192">
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
+  <mergeCells count="204">
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C9:D9"/>
@@ -2112,90 +2184,90 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumente/Timeline/Timeline.xlsx
+++ b/Dokumente/Timeline/Timeline.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansti/Documents/ITPP-Project-4-AHIT/Dokumente/Timeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\website\Dokumente\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A678BD-6A48-4CA4-9FCC-E0B791C6BB68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="1044" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="61">
   <si>
     <t>Arnstorfer Dominik</t>
   </si>
@@ -218,9 +219,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -338,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -354,16 +355,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -375,16 +373,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Dezimal" xfId="3" builtinId="3"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3"/>
+    <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -695,122 +696,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90:D90"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105:D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="19.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="29.1640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.77734375" style="1"/>
+    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1"/>
+    <col min="6" max="6" width="19.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1"/>
+    <col min="8" max="8" width="29.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42990</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <f>SUM(B2:B5)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -819,90 +820,90 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>42997</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f>SUM(B8:B11)</f>
         <v>4</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -911,90 +912,90 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43004</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f>SUM(B14:B17)</f>
         <v>4</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1003,199 +1004,199 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43011</v>
       </c>
       <c r="B20" s="3">
         <v>0.5</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>1.5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>0.5</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>0.5</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f>SUM(B20:B24)</f>
         <v>4</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43018</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <f>SUM(B27:B30)</f>
         <v>4</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f>A27+7</f>
         <v>43025</v>
@@ -1203,92 +1204,92 @@
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <f>SUM(B33:B36)</f>
         <v>4</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f>A33+7</f>
         <v>43032</v>
@@ -1296,83 +1297,83 @@
       <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <f>SUM(B39:B42)</f>
         <v>4</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f>A39+7</f>
         <v>43039</v>
@@ -1380,83 +1381,83 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8" t="s">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>1</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <f>SUM(B45:B48)</f>
         <v>4</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f>A45+7</f>
         <v>43046</v>
@@ -1464,83 +1465,83 @@
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F51" s="9"/>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>1</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="8"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F52" s="9"/>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>1</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8" t="s">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8" t="s">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>1</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="8"/>
+      <c r="G54" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <f>SUM(B51:B54)</f>
         <v>4</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f>A51+7</f>
         <v>43053</v>
@@ -1548,83 +1549,83 @@
       <c r="B57" s="3">
         <v>1</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8" t="s">
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>1</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="s">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8" t="s">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>1</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8" t="s">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <f>SUM(B57:B60)</f>
         <v>4</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f>A57+7</f>
         <v>43060</v>
@@ -1632,83 +1633,83 @@
       <c r="B63" s="3">
         <v>1</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="8"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="9"/>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
         <v>1</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8" t="s">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8" t="s">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>1</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="7" t="s">
+      <c r="D65" s="7"/>
+      <c r="E65" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8" t="s">
+      <c r="F65" s="8"/>
+      <c r="G65" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <v>1</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7" t="s">
+      <c r="F66" s="8"/>
+      <c r="G66" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
         <f>SUM(B63:B66)</f>
         <v>4</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f>A63+7</f>
         <v>43067</v>
@@ -1716,59 +1717,59 @@
       <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="7"/>
       <c r="H69" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <v>1</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="8"/>
+      <c r="D70" s="7"/>
       <c r="H70" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <v>1</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="8"/>
+      <c r="D71" s="7"/>
       <c r="H71" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>1</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="8"/>
       <c r="H72" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <f>SUM(B69:B72)</f>
         <v>4</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f>A69+7</f>
         <v>43074</v>
@@ -1776,62 +1777,62 @@
       <c r="B75" s="3">
         <v>1</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="7"/>
       <c r="H75" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" s="3">
         <v>1</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D76" s="8"/>
+      <c r="D76" s="7"/>
       <c r="H76" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" s="3">
         <v>1</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="8"/>
+      <c r="D77" s="7"/>
       <c r="H77" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" s="3">
         <v>1</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="7"/>
       <c r="H78" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" s="3">
         <f>SUM(B75:B78)</f>
         <v>4</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f>A75+7</f>
         <v>43081</v>
@@ -1839,59 +1840,59 @@
       <c r="B81" s="3">
         <v>1</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D81" s="8"/>
+      <c r="D81" s="7"/>
       <c r="H81" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B82" s="3">
         <v>1</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D82" s="8"/>
+      <c r="D82" s="7"/>
       <c r="H82" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B83" s="3">
         <v>1</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D83" s="8"/>
+      <c r="D83" s="7"/>
       <c r="H83" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B84" s="3">
         <v>1</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="8"/>
+      <c r="D84" s="7"/>
       <c r="H84" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B85" s="3">
         <f>SUM(B81:B84)</f>
         <v>4</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f>A81+7</f>
         <v>43088</v>
@@ -1899,56 +1900,56 @@
       <c r="B87" s="6">
         <v>1</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D87" s="8"/>
+      <c r="D87" s="7"/>
       <c r="H87" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B88" s="6">
         <v>1</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D88" s="8"/>
+      <c r="D88" s="7"/>
       <c r="H88" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B89" s="6">
         <v>1</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D89" s="8"/>
+      <c r="D89" s="7"/>
       <c r="H89" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B90" s="6">
         <v>1</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D90" s="8"/>
+      <c r="D90" s="7"/>
       <c r="H90" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B91" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f>A87+21</f>
         <v>43109</v>
@@ -1956,56 +1957,56 @@
       <c r="B93" s="6">
         <v>1</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D93" s="8"/>
+      <c r="D93" s="7"/>
       <c r="H93" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B94" s="6">
         <v>1</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="8"/>
+      <c r="D94" s="7"/>
       <c r="H94" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B95" s="6">
         <v>1</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="8"/>
+      <c r="D95" s="7"/>
       <c r="H95" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B96" s="6">
         <v>1</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="8"/>
+      <c r="D96" s="7"/>
       <c r="H96" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B97" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f>A93+7</f>
         <v>43116</v>
@@ -2013,153 +2014,934 @@
       <c r="B99" s="6">
         <v>1</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D99" s="8"/>
+      <c r="C99" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="7"/>
       <c r="H99" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B100" s="6">
         <v>1</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="8"/>
+      <c r="C100" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="7"/>
       <c r="H100" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B101" s="6">
         <v>1</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" s="8"/>
+      <c r="C101" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="7"/>
       <c r="H101" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B102" s="6">
         <v>1</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="8"/>
+      <c r="C102" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="7"/>
       <c r="H102" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B103" s="6">
         <v>4</v>
       </c>
     </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <f>A99+7</f>
+        <v>43123</v>
+      </c>
+      <c r="B105" s="6">
+        <v>1</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="H105" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B106" s="6">
+        <v>1</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="H106" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="6">
+        <v>1</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="H107" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B108" s="6">
+        <v>1</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="H108" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B109" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <f>A105+7</f>
+        <v>43130</v>
+      </c>
+      <c r="B111" s="6">
+        <v>1</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="H111" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B112" s="6">
+        <v>1</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="H112" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B113" s="6">
+        <v>1</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="H113" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B114" s="6">
+        <v>1</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="H114" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <f>A111+7</f>
+        <v>43137</v>
+      </c>
+      <c r="B117" s="6">
+        <v>1</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="H117" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B118" s="6">
+        <v>1</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="H118" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B119" s="6">
+        <v>1</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="H119" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B120" s="6">
+        <v>1</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="H120" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B121" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <f>A117+7</f>
+        <v>43144</v>
+      </c>
+      <c r="B123" s="6">
+        <v>1</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="H123" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B124" s="6">
+        <v>1</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="H124" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B125" s="6">
+        <v>1</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="H125" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B126" s="6">
+        <v>1</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="H126" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B127" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <f>A123+7</f>
+        <v>43151</v>
+      </c>
+      <c r="B129" s="6">
+        <v>1</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="H129" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B130" s="6">
+        <v>1</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="H130" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B131" s="6">
+        <v>1</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="H131" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B132" s="6">
+        <v>1</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="H132" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B133" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <f>A129+7</f>
+        <v>43158</v>
+      </c>
+      <c r="B135" s="6">
+        <v>1</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="H135" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B136" s="6">
+        <v>1</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="H136" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B137" s="6">
+        <v>1</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="H137" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B138" s="6">
+        <v>1</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="H138" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B139" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <f>A135+7</f>
+        <v>43165</v>
+      </c>
+      <c r="B141" s="6">
+        <v>1</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="H141" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B142" s="6">
+        <v>1</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="H142" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B143" s="6">
+        <v>1</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="H143" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B144" s="6">
+        <v>1</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="H144" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B145" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <f>A141+7</f>
+        <v>43172</v>
+      </c>
+      <c r="B147" s="6">
+        <v>1</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="H147" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B148" s="6">
+        <v>1</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="H148" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B149" s="6">
+        <v>1</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="H149" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B150" s="6">
+        <v>1</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150" s="7"/>
+      <c r="H150" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B151" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <f>A147+7</f>
+        <v>43179</v>
+      </c>
+      <c r="B153" s="6">
+        <v>1</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="H153" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B154" s="6">
+        <v>1</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="H154" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B155" s="6">
+        <v>1</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="H155" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B156" s="6">
+        <v>1</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D156" s="7"/>
+      <c r="H156" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B157" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <f>A153+7</f>
+        <v>43186</v>
+      </c>
+      <c r="B159" s="6">
+        <v>1</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="H159" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B160" s="6">
+        <v>1</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="H160" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B161" s="6">
+        <v>1</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="H161" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B162" s="6">
+        <v>1</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D162" s="7"/>
+      <c r="H162" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B163" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <f>A159+7</f>
+        <v>43193</v>
+      </c>
+      <c r="B165" s="6">
+        <v>1</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="H165" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B166" s="6">
+        <v>1</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D166" s="7"/>
+      <c r="H166" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B167" s="6">
+        <v>1</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D167" s="7"/>
+      <c r="H167" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B168" s="6">
+        <v>1</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D168" s="7"/>
+      <c r="H168" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B169" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <f>A165+7</f>
+        <v>43200</v>
+      </c>
+      <c r="B171" s="6">
+        <v>1</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D171" s="7"/>
+      <c r="H171" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B172" s="6">
+        <v>1</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D172" s="7"/>
+      <c r="H172" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B173" s="6">
+        <v>1</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D173" s="7"/>
+      <c r="H173" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B174" s="6">
+        <v>1</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D174" s="7"/>
+      <c r="H174" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B175" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <f>A171+7</f>
+        <v>43207</v>
+      </c>
+      <c r="B177" s="6">
+        <v>1</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" s="7"/>
+      <c r="H177" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B178" s="6">
+        <v>1</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="H178" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B179" s="6">
+        <v>1</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D179" s="7"/>
+      <c r="H179" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B180" s="6">
+        <v>1</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" s="7"/>
+      <c r="H180" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B181" s="6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="204">
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
+  <mergeCells count="256">
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C9:D9"/>
@@ -2184,90 +2966,102 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C99:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
